--- a/Web/files/ELM prediction/DKI 2/DKI1_O3_pred.xlsx
+++ b/Web/files/ELM prediction/DKI 2/DKI1_O3_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\data web\ELM prediction\DKI 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFB3D2-FEED-4B76-9323-F28483EC4CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3D06F-638B-416A-AB97-8A31B39758DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>Actual O3</t>
+    <t>O3 Predict</t>
   </si>
   <si>
-    <t>Predict O3</t>
+    <t>O3 Actual</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,10 +408,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
